--- a/Values.xlsx
+++ b/Values.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThomGeo\Documents\GitHub\Population Projections\Projections for GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\R\R projects\Population_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C139E26A-8AE6-4A4E-BAE0-C57177BB71D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793A285C-BDC5-4D00-B285-118E4B78B3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A2081349-C378-4D18-8F4B-CC3CF1685847}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2081349-C378-4D18-8F4B-CC3CF1685847}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,60 @@
     <t>Nottingham</t>
   </si>
   <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>10-14</t>
+  </si>
+  <si>
+    <t>15-19</t>
+  </si>
+  <si>
+    <t>20-24</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>30-34</t>
+  </si>
+  <si>
+    <t>35-39</t>
+  </si>
+  <si>
+    <t>40-44</t>
+  </si>
+  <si>
+    <t>45-49</t>
+  </si>
+  <si>
+    <t>50-54</t>
+  </si>
+  <si>
+    <t>55-59</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t>65-69</t>
+  </si>
+  <si>
+    <t>70-74</t>
+  </si>
+  <si>
+    <t>75-79</t>
+  </si>
+  <si>
+    <t>80-84</t>
+  </si>
+  <si>
+    <t>85-89</t>
+  </si>
+  <si>
     <t>90+</t>
   </si>
   <si>
@@ -75,60 +129,6 @@
   </si>
   <si>
     <t>Values</t>
-  </si>
-  <si>
-    <t>0 to 04</t>
-  </si>
-  <si>
-    <t>05 to 09</t>
-  </si>
-  <si>
-    <t>10 to 14</t>
-  </si>
-  <si>
-    <t>15 to 19</t>
-  </si>
-  <si>
-    <t>20 to 24</t>
-  </si>
-  <si>
-    <t>25 to 29</t>
-  </si>
-  <si>
-    <t>30 to 34</t>
-  </si>
-  <si>
-    <t>35 to 39</t>
-  </si>
-  <si>
-    <t>45 to 49</t>
-  </si>
-  <si>
-    <t>50 to 54</t>
-  </si>
-  <si>
-    <t>55 to 59</t>
-  </si>
-  <si>
-    <t>60 to 64</t>
-  </si>
-  <si>
-    <t>65 to 69</t>
-  </si>
-  <si>
-    <t>70 to 74</t>
-  </si>
-  <si>
-    <t>75 to 79</t>
-  </si>
-  <si>
-    <t>80 to 84</t>
-  </si>
-  <si>
-    <t>85 to 89</t>
-  </si>
-  <si>
-    <t>40 to 44</t>
   </si>
 </sst>
 </file>
@@ -492,1696 +492,1696 @@
   <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C34">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C36">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C45">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C46">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C47">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C48">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C49">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C50">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C51">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C52">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C53">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C54">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C55">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C56">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C57">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C58">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C61">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C62">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C63">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C64">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C65">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C66">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C67">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C68">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C69">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C70">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B71" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C71">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C72">
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C73">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C74">
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C75">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C76">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C77">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C80">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C81">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C82">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C83">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C84">
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C85">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C86">
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C87">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C88">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C89">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C90">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C91">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C92">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C93">
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C94">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C95">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C96">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C100">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C101">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C102">
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C103">
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C104">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C105">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C106">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C107">
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C108">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C109">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C110">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B111" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C111">
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C112">
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C113">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C114">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C115">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C118">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C119">
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C120">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C121">
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C122">
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C123">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C124">
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C125">
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C126">
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C127">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C128">
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C129">
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C130">
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C131">
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C132">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C133">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C134">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C137">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C138">
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C139">
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C140">
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C141">
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C142">
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C143">
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C144">
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C145">
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C146">
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C147">
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C148">
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C149">
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C150">
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C151">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C152">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C153">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
